--- a/parsing/patents.xlsx
+++ b/parsing/patents.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
-  <si>
-    <t>Панкратов Сергей Александрович</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Панкратов С.А.</t>
   </si>
   <si>
     <t>2023-05-16 00:00:00</t>
@@ -25,31 +25,7 @@
     <t>2022-08-16 16:51:17</t>
   </si>
   <si>
-    <t>Божьев Иван Вячеславович</t>
-  </si>
-  <si>
-    <t>Преснов Денис Евгеньевич</t>
-  </si>
-  <si>
-    <t>Крупенин Владимир Александрович</t>
-  </si>
-  <si>
-    <t>Снигирев Олег Васильевич</t>
-  </si>
-  <si>
-    <t>Шорохов Владислав Владимирович</t>
-  </si>
-  <si>
-    <t>Циняйкин Илья Иванович</t>
-  </si>
-  <si>
-    <t>Салимова Ирина Олеговна</t>
-  </si>
-  <si>
-    <t>Белоглазкина Елена Кимовна</t>
-  </si>
-  <si>
-    <t>Алексеев Игорь Иванович</t>
+    <t>Невский Дмитрий Владимирович</t>
   </si>
   <si>
     <t>2023-11-21 00:00:00</t>
@@ -58,25 +34,13 @@
     <t>2023-11-27 13:59:24</t>
   </si>
   <si>
-    <t>Невский Дмитрий Владимирович</t>
-  </si>
-  <si>
-    <t>Лаврухин Александр Сергеевич</t>
-  </si>
-  <si>
-    <t>Дорофеев Александр Андреевич</t>
+    <t>Михайлов Павел Олегович</t>
   </si>
   <si>
     <t>2023-11-23 00:00:00</t>
   </si>
   <si>
     <t>2023-11-29 16:24:47</t>
-  </si>
-  <si>
-    <t>Михайлов Павел Олегович</t>
-  </si>
-  <si>
-    <t>Попов Андрей Алексеевич</t>
   </si>
 </sst>
 </file>
@@ -408,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,305 +400,33 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>7330152</v>
+        <v>136921775</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>535801</v>
+        <v>336789999</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>561438</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>555431</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>565027</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7">
-        <v>132334141</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>92700676</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>436974</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>397642</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>136921775</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>9640993</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>38262536</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>7330152</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>535801</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>561438</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>555431</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>336789999</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>504044043</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
